--- a/Code/Results/Cases/Case_0_237/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_237/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.17976009445511</v>
+        <v>13.42939298204104</v>
       </c>
       <c r="D2">
-        <v>4.270138918269435</v>
+        <v>4.869242924293983</v>
       </c>
       <c r="E2">
-        <v>11.37946037325843</v>
+        <v>13.79431582686956</v>
       </c>
       <c r="F2">
-        <v>18.61495001951847</v>
+        <v>24.53724826728914</v>
       </c>
       <c r="G2">
-        <v>23.94156375796496</v>
+        <v>29.3015829382752</v>
       </c>
       <c r="H2">
-        <v>8.635180393480249</v>
+        <v>14.33777293421344</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.88039546884951</v>
+        <v>14.03485835500682</v>
       </c>
       <c r="L2">
-        <v>6.034668898875963</v>
+        <v>9.199061398802536</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.20058906520674</v>
+        <v>16.81734443349527</v>
       </c>
       <c r="O2">
-        <v>14.54394645684094</v>
+        <v>21.91599288424075</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.57484292798546</v>
+        <v>13.32876118497864</v>
       </c>
       <c r="D3">
-        <v>4.139959678683797</v>
+        <v>4.827578687229076</v>
       </c>
       <c r="E3">
-        <v>10.88461706282582</v>
+        <v>13.73191295437658</v>
       </c>
       <c r="F3">
-        <v>18.04405526139533</v>
+        <v>24.53765085262209</v>
       </c>
       <c r="G3">
-        <v>23.08167069840727</v>
+        <v>29.28443232432006</v>
       </c>
       <c r="H3">
-        <v>8.620243018326796</v>
+        <v>14.38238421520306</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.607807211431</v>
+        <v>13.54223955579664</v>
       </c>
       <c r="L3">
-        <v>5.904914249113153</v>
+        <v>9.200557490464773</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.22401807382722</v>
+        <v>16.84032109496912</v>
       </c>
       <c r="O3">
-        <v>14.33504161898349</v>
+        <v>21.97179184343366</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.19480943829107</v>
+        <v>13.26997333803254</v>
       </c>
       <c r="D4">
-        <v>4.057473423374355</v>
+        <v>4.801474167779489</v>
       </c>
       <c r="E4">
-        <v>10.57669007067998</v>
+        <v>13.69666690837401</v>
       </c>
       <c r="F4">
-        <v>17.70457125974879</v>
+        <v>24.54537314795261</v>
       </c>
       <c r="G4">
-        <v>22.56968585675404</v>
+        <v>29.28495756246945</v>
       </c>
       <c r="H4">
-        <v>8.61832435282556</v>
+        <v>14.41251123619463</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.78080609852682</v>
+        <v>13.23140681746614</v>
       </c>
       <c r="L4">
-        <v>5.827265192289093</v>
+        <v>9.20298955061503</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.24217730620892</v>
+        <v>16.85618402148108</v>
       </c>
       <c r="O4">
-        <v>14.22112875317328</v>
+        <v>22.01169604609113</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.03798574142672</v>
+        <v>13.2467944022875</v>
       </c>
       <c r="D5">
-        <v>4.023247545443886</v>
+        <v>4.790709549948375</v>
       </c>
       <c r="E5">
-        <v>10.45036060188625</v>
+        <v>13.68308710470094</v>
       </c>
       <c r="F5">
-        <v>17.56916189703074</v>
+        <v>24.55039772802352</v>
       </c>
       <c r="G5">
-        <v>22.36533369336507</v>
+        <v>29.2879473467448</v>
       </c>
       <c r="H5">
-        <v>8.619298459242374</v>
+        <v>14.42547505670809</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.43231065072522</v>
+        <v>13.10281935828769</v>
       </c>
       <c r="L5">
-        <v>5.796157875514804</v>
+        <v>9.204361732606557</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.2505048033082</v>
+        <v>16.86309045970093</v>
       </c>
       <c r="O5">
-        <v>14.17824850751663</v>
+        <v>22.02937174628736</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11.01183384763732</v>
+        <v>13.24299316858986</v>
       </c>
       <c r="D6">
-        <v>4.017528349174398</v>
+        <v>4.788914568704493</v>
       </c>
       <c r="E6">
-        <v>10.42933830718768</v>
+        <v>13.68087980610498</v>
       </c>
       <c r="F6">
-        <v>17.54685886123399</v>
+        <v>24.55134537690534</v>
       </c>
       <c r="G6">
-        <v>22.33166766627581</v>
+        <v>29.28861126248492</v>
       </c>
       <c r="H6">
-        <v>8.619564265279758</v>
+        <v>14.42766913976507</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.37374941279825</v>
+        <v>13.08135718477585</v>
       </c>
       <c r="L6">
-        <v>5.791025641617964</v>
+        <v>9.204612612467432</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.25194298358836</v>
+        <v>16.86426399801427</v>
       </c>
       <c r="O6">
-        <v>14.17133980438289</v>
+        <v>22.03239206684321</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.19270208234776</v>
+        <v>13.26965756092644</v>
       </c>
       <c r="D7">
-        <v>4.057014276855938</v>
+        <v>4.801329499777003</v>
       </c>
       <c r="E7">
-        <v>10.57498951859858</v>
+        <v>13.69648058082298</v>
       </c>
       <c r="F7">
-        <v>17.70273300412873</v>
+        <v>24.54543331225405</v>
       </c>
       <c r="G7">
-        <v>22.56691219218146</v>
+        <v>29.28498665279326</v>
       </c>
       <c r="H7">
-        <v>8.618330470342867</v>
+        <v>14.41268329135413</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.77615268042729</v>
+        <v>13.2296801645521</v>
       </c>
       <c r="L7">
-        <v>5.826843465251651</v>
+        <v>9.203006512695742</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.24228588618852</v>
+        <v>16.85627537273894</v>
       </c>
       <c r="O7">
-        <v>14.22053622265711</v>
+        <v>22.01192870630623</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.97308685151651</v>
+        <v>13.39408667470364</v>
       </c>
       <c r="D8">
-        <v>4.225800983890159</v>
+        <v>4.85498826765129</v>
       </c>
       <c r="E8">
-        <v>11.20978973650921</v>
+        <v>13.77216937532498</v>
       </c>
       <c r="F8">
-        <v>18.41590653603742</v>
+        <v>24.53583484459908</v>
       </c>
       <c r="G8">
-        <v>23.64191191145858</v>
+        <v>29.29337306814173</v>
       </c>
       <c r="H8">
-        <v>8.628484141356488</v>
+        <v>14.35258652524987</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.4510655281791</v>
+        <v>13.86684300839468</v>
       </c>
       <c r="L8">
-        <v>5.989526468359258</v>
+        <v>9.199263488523806</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.20787095009911</v>
+        <v>16.82490299408932</v>
       </c>
       <c r="O8">
-        <v>14.46889864208161</v>
+        <v>21.93405836613293</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.42760435692769</v>
+        <v>13.66081870223104</v>
       </c>
       <c r="D9">
-        <v>4.53531999439331</v>
+        <v>4.955870367751936</v>
       </c>
       <c r="E9">
-        <v>12.41534802732835</v>
+        <v>13.94440192862844</v>
       </c>
       <c r="F9">
-        <v>19.89528086969831</v>
+        <v>24.576350147614</v>
       </c>
       <c r="G9">
-        <v>25.86552497902071</v>
+        <v>29.39759699855773</v>
       </c>
       <c r="H9">
-        <v>8.708918094729048</v>
+        <v>14.25648810082648</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.37471370024485</v>
+        <v>15.04284031279873</v>
       </c>
       <c r="L9">
-        <v>6.323393430289413</v>
+        <v>9.203904219825311</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.17133811120935</v>
+        <v>16.77727284170416</v>
       </c>
       <c r="O9">
-        <v>15.072317150165</v>
+        <v>21.82632773420527</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.44217635520054</v>
+        <v>13.86911118404767</v>
       </c>
       <c r="D10">
-        <v>4.748241264813307</v>
+        <v>5.027084218583426</v>
       </c>
       <c r="E10">
-        <v>13.2696320114751</v>
+        <v>14.08465314729752</v>
       </c>
       <c r="F10">
-        <v>21.02279473626685</v>
+        <v>24.64223461692846</v>
       </c>
       <c r="G10">
-        <v>27.55560486979681</v>
+        <v>29.52755797630016</v>
       </c>
       <c r="H10">
-        <v>8.808871671124422</v>
+        <v>14.19920618337973</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.30506304916181</v>
+        <v>15.85370176986224</v>
       </c>
       <c r="L10">
-        <v>6.576212006955393</v>
+        <v>9.214573435118984</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.16483452309075</v>
+        <v>16.75070022795672</v>
       </c>
       <c r="O10">
-        <v>15.58917939183776</v>
+        <v>21.77484007601483</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.8908905241178</v>
+        <v>13.96619915753759</v>
       </c>
       <c r="D11">
-        <v>4.841720182793035</v>
+        <v>5.058797674224362</v>
       </c>
       <c r="E11">
-        <v>13.65030281533056</v>
+        <v>14.15124471002431</v>
       </c>
       <c r="F11">
-        <v>21.54294439579729</v>
+        <v>24.68000607820283</v>
       </c>
       <c r="G11">
-        <v>28.33422896667732</v>
+        <v>29.59818131756521</v>
       </c>
       <c r="H11">
-        <v>8.864028087002712</v>
+        <v>14.17605228447748</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.13662407016576</v>
+        <v>16.20959567604502</v>
       </c>
       <c r="L11">
-        <v>6.692569242995574</v>
+        <v>9.22099116259975</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.16663032539612</v>
+        <v>16.74043007344876</v>
       </c>
       <c r="O11">
-        <v>15.84063273862797</v>
+        <v>21.75746795787752</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.05890279843353</v>
+        <v>14.00326950441202</v>
       </c>
       <c r="D12">
-        <v>4.876615440355017</v>
+        <v>5.070704270841561</v>
       </c>
       <c r="E12">
-        <v>13.79324210879446</v>
+        <v>14.17684525637572</v>
       </c>
       <c r="F12">
-        <v>21.74083968534504</v>
+        <v>24.69542454081416</v>
       </c>
       <c r="G12">
-        <v>28.63031725376319</v>
+        <v>29.62656596936758</v>
       </c>
       <c r="H12">
-        <v>8.886371225185927</v>
+        <v>14.16770306028536</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.44487895528473</v>
+        <v>16.34239666229758</v>
       </c>
       <c r="L12">
-        <v>6.736803321238495</v>
+        <v>9.223645001248306</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.16802347288974</v>
+        <v>16.73680155815892</v>
       </c>
       <c r="O12">
-        <v>15.93821784716359</v>
+        <v>21.75176246532657</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.02280389198802</v>
+        <v>13.99527265640647</v>
       </c>
       <c r="D13">
-        <v>4.869122749293359</v>
+        <v>5.068144606238775</v>
       </c>
       <c r="E13">
-        <v>13.76251240710509</v>
+        <v>14.17131493879211</v>
       </c>
       <c r="F13">
-        <v>21.69817983005081</v>
+        <v>24.69205441806035</v>
       </c>
       <c r="G13">
-        <v>28.56649647917112</v>
+        <v>29.62038007810107</v>
       </c>
       <c r="H13">
-        <v>8.88149345570489</v>
+        <v>14.16948257876049</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.37878506806465</v>
+        <v>16.31388463925278</v>
       </c>
       <c r="L13">
-        <v>6.72726938130719</v>
+        <v>9.223063528792869</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.1676912346425</v>
+        <v>16.73757144846557</v>
       </c>
       <c r="O13">
-        <v>15.91709572891777</v>
+        <v>21.75295237785264</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.90475147793127</v>
+        <v>13.96924301603512</v>
       </c>
       <c r="D14">
-        <v>4.844601210923213</v>
+        <v>5.059779318872916</v>
       </c>
       <c r="E14">
-        <v>13.66208714834674</v>
+        <v>14.15334329391872</v>
       </c>
       <c r="F14">
-        <v>21.559207390999</v>
+        <v>24.68125225598735</v>
       </c>
       <c r="G14">
-        <v>28.35856430829369</v>
+        <v>29.60048373516768</v>
       </c>
       <c r="H14">
-        <v>8.86583672053821</v>
+        <v>14.17535699234423</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.1621171000069</v>
+        <v>16.22056128550085</v>
       </c>
       <c r="L14">
-        <v>6.696205072041908</v>
+        <v>9.221205022825787</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.16673047519889</v>
+        <v>16.74012633596937</v>
       </c>
       <c r="O14">
-        <v>15.84861364007345</v>
+        <v>21.75698105286293</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.83219124898721</v>
+        <v>13.95333794834517</v>
       </c>
       <c r="D15">
-        <v>4.829515063323951</v>
+        <v>5.054641844861809</v>
       </c>
       <c r="E15">
-        <v>13.60041413475964</v>
+        <v>14.14238458851022</v>
       </c>
       <c r="F15">
-        <v>21.47420026839184</v>
+        <v>24.67478063778865</v>
       </c>
       <c r="G15">
-        <v>28.23135698055614</v>
+        <v>29.58850993308851</v>
       </c>
       <c r="H15">
-        <v>8.856438065276283</v>
+        <v>14.17900979249226</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.02853887050131</v>
+        <v>16.16313886643621</v>
       </c>
       <c r="L15">
-        <v>6.677199103753565</v>
+        <v>9.220095708814128</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.16623574758259</v>
+        <v>16.74172518702457</v>
       </c>
       <c r="O15">
-        <v>15.80697483050464</v>
+        <v>21.7595624974332</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14.41258802150025</v>
+        <v>13.86281064120784</v>
       </c>
       <c r="D16">
-        <v>4.742062663907543</v>
+        <v>5.024997555849699</v>
       </c>
       <c r="E16">
-        <v>13.24458796591738</v>
+        <v>14.08035590468997</v>
       </c>
       <c r="F16">
-        <v>20.98893710994324</v>
+        <v>24.6399226099384</v>
       </c>
       <c r="G16">
-        <v>27.50490187268427</v>
+        <v>29.52317300861554</v>
       </c>
       <c r="H16">
-        <v>8.805467480494356</v>
+        <v>14.20077787250577</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.24978629815752</v>
+        <v>15.83017314312406</v>
       </c>
       <c r="L16">
-        <v>6.568632995339568</v>
+        <v>9.214185386093863</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.16481532004846</v>
+        <v>16.75140791556827</v>
       </c>
       <c r="O16">
-        <v>15.57307647939559</v>
+        <v>21.77609738959851</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>14.15184015832316</v>
+        <v>13.80785150485068</v>
       </c>
       <c r="D17">
-        <v>4.687534792997554</v>
+        <v>5.006633799927702</v>
       </c>
       <c r="E17">
-        <v>13.02420895088627</v>
+        <v>14.0430058182466</v>
       </c>
       <c r="F17">
-        <v>20.69300982625636</v>
+        <v>24.6205320942804</v>
       </c>
       <c r="G17">
-        <v>27.06162338934275</v>
+        <v>29.4860289315516</v>
       </c>
       <c r="H17">
-        <v>8.776725647353912</v>
+        <v>14.21487643019959</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.76015902104669</v>
+        <v>15.6225097037802</v>
       </c>
       <c r="L17">
-        <v>6.502360211385574</v>
+        <v>9.210959322393933</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.16518217277845</v>
+        <v>16.75781296365631</v>
       </c>
       <c r="O17">
-        <v>15.43378353415109</v>
+        <v>21.78779279956597</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>14.00066052925736</v>
+        <v>13.77646207509111</v>
       </c>
       <c r="D18">
-        <v>4.655854527413196</v>
+        <v>4.996007516336476</v>
       </c>
       <c r="E18">
-        <v>12.89670764195795</v>
+        <v>14.02178679543178</v>
       </c>
       <c r="F18">
-        <v>20.52348728414203</v>
+        <v>24.61011386783585</v>
       </c>
       <c r="G18">
-        <v>26.80759152958449</v>
+        <v>29.46574838058003</v>
       </c>
       <c r="H18">
-        <v>8.761102216183945</v>
+        <v>14.22325881839068</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.47415171242308</v>
+        <v>15.50185157697933</v>
       </c>
       <c r="L18">
-        <v>6.464369953224926</v>
+        <v>9.209251100958548</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.16583883501038</v>
+        <v>16.76166813463998</v>
       </c>
       <c r="O18">
-        <v>15.35520235802048</v>
+        <v>21.79508898298745</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.94926911691534</v>
+        <v>13.76587313647999</v>
       </c>
       <c r="D19">
-        <v>4.645074202325612</v>
+        <v>4.992398797433858</v>
       </c>
       <c r="E19">
-        <v>12.85341235119861</v>
+        <v>14.0146482216762</v>
       </c>
       <c r="F19">
-        <v>20.46621167676981</v>
+        <v>24.6067127888923</v>
       </c>
       <c r="G19">
-        <v>26.72174619842377</v>
+        <v>29.45906821455927</v>
       </c>
       <c r="H19">
-        <v>8.755966389086627</v>
+        <v>14.22614385203823</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.37655950768808</v>
+        <v>15.46079338387016</v>
       </c>
       <c r="L19">
-        <v>6.451529817920394</v>
+        <v>9.208698068453636</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.16613683563681</v>
+        <v>16.76300285085679</v>
       </c>
       <c r="O19">
-        <v>15.32885941409862</v>
+        <v>21.79765702343697</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14.17972238106307</v>
+        <v>13.81367928209636</v>
       </c>
       <c r="D20">
-        <v>4.693372346462235</v>
+        <v>5.008595303372132</v>
       </c>
       <c r="E20">
-        <v>13.04774635666955</v>
+        <v>14.04695462527127</v>
       </c>
       <c r="F20">
-        <v>20.72444158336997</v>
+        <v>24.62252025226534</v>
       </c>
       <c r="G20">
-        <v>27.10871620604866</v>
+        <v>29.48987090361952</v>
       </c>
       <c r="H20">
-        <v>8.779690811452783</v>
+        <v>14.21334732423031</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.81273428939224</v>
+        <v>15.64474243060885</v>
       </c>
       <c r="L20">
-        <v>6.509401972704065</v>
+        <v>9.211287504100349</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.16509678756341</v>
+        <v>16.75711342727397</v>
       </c>
       <c r="O20">
-        <v>15.44845235329656</v>
+        <v>21.78648886040182</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.93947845645138</v>
+        <v>13.97688051343533</v>
       </c>
       <c r="D21">
-        <v>4.851817562243721</v>
+        <v>5.062239226590828</v>
       </c>
       <c r="E21">
-        <v>13.6916178484284</v>
+        <v>14.15861172937292</v>
       </c>
       <c r="F21">
-        <v>21.60000265299055</v>
+        <v>24.68439490490362</v>
       </c>
       <c r="G21">
-        <v>28.41960653063892</v>
+        <v>29.6062833531402</v>
       </c>
       <c r="H21">
-        <v>8.870395454159015</v>
+        <v>14.17362016420108</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.22593744079995</v>
+        <v>16.24802679351917</v>
       </c>
       <c r="L21">
-        <v>6.705324900459861</v>
+        <v>9.221744854595961</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.16699307853851</v>
+        <v>16.73936883855565</v>
       </c>
       <c r="O21">
-        <v>15.86866418466168</v>
+        <v>21.75577402019567</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.42489869155502</v>
+        <v>14.08530670237806</v>
       </c>
       <c r="D22">
-        <v>4.952431428599534</v>
+        <v>5.096698575482566</v>
       </c>
       <c r="E22">
-        <v>14.10533873905317</v>
+        <v>14.23381439174631</v>
       </c>
       <c r="F22">
-        <v>22.17759063068955</v>
+        <v>24.73132989336792</v>
       </c>
       <c r="G22">
-        <v>29.28352646474926</v>
+        <v>29.69192312242381</v>
       </c>
       <c r="H22">
-        <v>8.9381945178115</v>
+        <v>14.15009687132411</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.11087919668986</v>
+        <v>16.63079624934205</v>
       </c>
       <c r="L22">
-        <v>6.834367210955349</v>
+        <v>9.229881824245597</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.17240361227178</v>
+        <v>16.72929012095226</v>
       </c>
       <c r="O22">
-        <v>16.15708851028636</v>
+        <v>21.74078938142679</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.16685391263381</v>
+        <v>14.02728630654506</v>
       </c>
       <c r="D23">
-        <v>4.899005916950254</v>
+        <v>5.07836334280819</v>
       </c>
       <c r="E23">
-        <v>13.88519466084705</v>
+        <v>14.19347938861925</v>
       </c>
       <c r="F23">
-        <v>21.86886346190687</v>
+        <v>24.70568792363751</v>
       </c>
       <c r="G23">
-        <v>28.82182554675743</v>
+        <v>29.64534616461804</v>
       </c>
       <c r="H23">
-        <v>8.901208935595166</v>
+        <v>14.16242802952333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.64208706942109</v>
+        <v>16.42758907743086</v>
       </c>
       <c r="L23">
-        <v>6.765410234943903</v>
+        <v>9.225420279079959</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.16912416937816</v>
+        <v>16.73453066977022</v>
       </c>
       <c r="O23">
-        <v>16.00188443346126</v>
+        <v>21.74832042904218</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.16712078582389</v>
+        <v>13.81104389595593</v>
       </c>
       <c r="D24">
-        <v>4.690734219658636</v>
+        <v>5.007708721348222</v>
       </c>
       <c r="E24">
-        <v>13.03710758954976</v>
+        <v>14.04516857700104</v>
       </c>
       <c r="F24">
-        <v>20.71022937700218</v>
+        <v>24.62161913277142</v>
       </c>
       <c r="G24">
-        <v>27.08742299228506</v>
+        <v>29.48813060139945</v>
       </c>
       <c r="H24">
-        <v>8.778347460339136</v>
+        <v>14.21403777044873</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.78897907510385</v>
+        <v>15.63469496150606</v>
       </c>
       <c r="L24">
-        <v>6.50621804544798</v>
+        <v>9.211138676764307</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.16513400400935</v>
+        <v>16.7574291492651</v>
       </c>
       <c r="O24">
-        <v>15.44181590870151</v>
+        <v>21.78707658870774</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.04315434651801</v>
+        <v>13.58638142065535</v>
       </c>
       <c r="D25">
-        <v>4.454040050895656</v>
+        <v>4.92907078888104</v>
       </c>
       <c r="E25">
-        <v>12.09427691266582</v>
+        <v>13.89533872135613</v>
       </c>
       <c r="F25">
-        <v>19.48734385394912</v>
+        <v>24.55903688779938</v>
       </c>
       <c r="G25">
-        <v>25.25313532712001</v>
+        <v>29.36000488081408</v>
       </c>
       <c r="H25">
-        <v>8.680263861005381</v>
+        <v>14.28015015434787</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.62221104434375</v>
+        <v>14.73349325137896</v>
       </c>
       <c r="L25">
-        <v>6.23164600163684</v>
+        <v>9.201370121354675</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.17776006733016</v>
+        <v>16.78867573990696</v>
       </c>
       <c r="O25">
-        <v>14.89630891690099</v>
+        <v>21.85063016943189</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_237/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_237/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.42939298204104</v>
+        <v>12.17976009445514</v>
       </c>
       <c r="D2">
-        <v>4.869242924293983</v>
+        <v>4.270138918269422</v>
       </c>
       <c r="E2">
-        <v>13.79431582686956</v>
+        <v>11.37946037325844</v>
       </c>
       <c r="F2">
-        <v>24.53724826728914</v>
+        <v>18.61495001951857</v>
       </c>
       <c r="G2">
-        <v>29.3015829382752</v>
+        <v>23.94156375796502</v>
       </c>
       <c r="H2">
-        <v>14.33777293421344</v>
+        <v>8.635180393480352</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.03485835500682</v>
+        <v>19.88039546884946</v>
       </c>
       <c r="L2">
-        <v>9.199061398802536</v>
+        <v>6.034668898875996</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.81734443349527</v>
+        <v>12.2005890652068</v>
       </c>
       <c r="O2">
-        <v>21.91599288424075</v>
+        <v>14.54394645684108</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.32876118497864</v>
+        <v>11.57484292798556</v>
       </c>
       <c r="D3">
-        <v>4.827578687229076</v>
+        <v>4.139959678683964</v>
       </c>
       <c r="E3">
-        <v>13.73191295437658</v>
+        <v>10.88461706282581</v>
       </c>
       <c r="F3">
-        <v>24.53765085262209</v>
+        <v>18.04405526139523</v>
       </c>
       <c r="G3">
-        <v>29.28443232432006</v>
+        <v>23.08167069840731</v>
       </c>
       <c r="H3">
-        <v>14.38238421520306</v>
+        <v>8.620243018326738</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.54223955579664</v>
+        <v>18.60780721143102</v>
       </c>
       <c r="L3">
-        <v>9.200557490464773</v>
+        <v>5.904914249113158</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.84032109496912</v>
+        <v>12.22401807382719</v>
       </c>
       <c r="O3">
-        <v>21.97179184343366</v>
+        <v>14.33504161898342</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.26997333803254</v>
+        <v>11.19480943829116</v>
       </c>
       <c r="D4">
-        <v>4.801474167779489</v>
+        <v>4.057473423374281</v>
       </c>
       <c r="E4">
-        <v>13.69666690837401</v>
+        <v>10.57669007068001</v>
       </c>
       <c r="F4">
-        <v>24.54537314795261</v>
+        <v>17.70457125974869</v>
       </c>
       <c r="G4">
-        <v>29.28495756246945</v>
+        <v>22.56968585675401</v>
       </c>
       <c r="H4">
-        <v>14.41251123619463</v>
+        <v>8.618324352825498</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.23140681746614</v>
+        <v>17.78080609852686</v>
       </c>
       <c r="L4">
-        <v>9.20298955061503</v>
+        <v>5.82726519228914</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.85618402148108</v>
+        <v>12.24217730620889</v>
       </c>
       <c r="O4">
-        <v>22.01169604609113</v>
+        <v>14.22112875317316</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.2467944022875</v>
+        <v>11.03798574142672</v>
       </c>
       <c r="D5">
-        <v>4.790709549948375</v>
+        <v>4.023247545443832</v>
       </c>
       <c r="E5">
-        <v>13.68308710470094</v>
+        <v>10.45036060188619</v>
       </c>
       <c r="F5">
-        <v>24.55039772802352</v>
+        <v>17.56916189703059</v>
       </c>
       <c r="G5">
-        <v>29.2879473467448</v>
+        <v>22.36533369336483</v>
       </c>
       <c r="H5">
-        <v>14.42547505670809</v>
+        <v>8.619298459242266</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.10281935828769</v>
+        <v>17.43231065072531</v>
       </c>
       <c r="L5">
-        <v>9.204361732606557</v>
+        <v>5.796157875514741</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.86309045970093</v>
+        <v>12.25050480330817</v>
       </c>
       <c r="O5">
-        <v>22.02937174628736</v>
+        <v>14.17824850751647</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.24299316858986</v>
+        <v>11.01183384763728</v>
       </c>
       <c r="D6">
-        <v>4.788914568704493</v>
+        <v>4.017528349174393</v>
       </c>
       <c r="E6">
-        <v>13.68087980610498</v>
+        <v>10.42933830718773</v>
       </c>
       <c r="F6">
-        <v>24.55134537690534</v>
+        <v>17.54685886123389</v>
       </c>
       <c r="G6">
-        <v>29.28861126248492</v>
+        <v>22.33166766627576</v>
       </c>
       <c r="H6">
-        <v>14.42766913976507</v>
+        <v>8.619564265279706</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.08135718477585</v>
+        <v>17.37374941279828</v>
       </c>
       <c r="L6">
-        <v>9.204612612467432</v>
+        <v>5.791025641618036</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.86426399801427</v>
+        <v>12.25194298358833</v>
       </c>
       <c r="O6">
-        <v>22.03239206684321</v>
+        <v>14.17133980438283</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.26965756092644</v>
+        <v>11.1927020823478</v>
       </c>
       <c r="D7">
-        <v>4.801329499777003</v>
+        <v>4.057014276856033</v>
       </c>
       <c r="E7">
-        <v>13.69648058082298</v>
+        <v>10.5749895185986</v>
       </c>
       <c r="F7">
-        <v>24.54543331225405</v>
+        <v>17.70273300412877</v>
       </c>
       <c r="G7">
-        <v>29.28498665279326</v>
+        <v>22.5669121921816</v>
       </c>
       <c r="H7">
-        <v>14.41268329135413</v>
+        <v>8.618330470342871</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.2296801645521</v>
+        <v>17.7761526804273</v>
       </c>
       <c r="L7">
-        <v>9.203006512695742</v>
+        <v>5.826843465251692</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.85627537273894</v>
+        <v>12.24228588618858</v>
       </c>
       <c r="O7">
-        <v>22.01192870630623</v>
+        <v>14.22053622265718</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.39408667470364</v>
+        <v>11.97308685151642</v>
       </c>
       <c r="D8">
-        <v>4.85498826765129</v>
+        <v>4.225800983890327</v>
       </c>
       <c r="E8">
-        <v>13.77216937532498</v>
+        <v>11.20978973650915</v>
       </c>
       <c r="F8">
-        <v>24.53583484459908</v>
+        <v>18.41590653603735</v>
       </c>
       <c r="G8">
-        <v>29.29337306814173</v>
+        <v>23.64191191145864</v>
       </c>
       <c r="H8">
-        <v>14.35258652524987</v>
+        <v>8.628484141356441</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.86684300839468</v>
+        <v>19.45106552817909</v>
       </c>
       <c r="L8">
-        <v>9.199263488523806</v>
+        <v>5.98952646835929</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.82490299408932</v>
+        <v>12.20787095009911</v>
       </c>
       <c r="O8">
-        <v>21.93405836613293</v>
+        <v>14.46889864208161</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.66081870223104</v>
+        <v>13.42760435692765</v>
       </c>
       <c r="D9">
-        <v>4.955870367751936</v>
+        <v>4.535319994393396</v>
       </c>
       <c r="E9">
-        <v>13.94440192862844</v>
+        <v>12.41534802732833</v>
       </c>
       <c r="F9">
-        <v>24.576350147614</v>
+        <v>19.89528086969824</v>
       </c>
       <c r="G9">
-        <v>29.39759699855773</v>
+        <v>25.86552497902067</v>
       </c>
       <c r="H9">
-        <v>14.25648810082648</v>
+        <v>8.708918094729007</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.04284031279873</v>
+        <v>22.37471370024488</v>
       </c>
       <c r="L9">
-        <v>9.203904219825311</v>
+        <v>6.32339343028945</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.77727284170416</v>
+        <v>12.17133811120932</v>
       </c>
       <c r="O9">
-        <v>21.82632773420527</v>
+        <v>15.07231715016495</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.86911118404767</v>
+        <v>14.44217635520054</v>
       </c>
       <c r="D10">
-        <v>5.027084218583426</v>
+        <v>4.748241264813336</v>
       </c>
       <c r="E10">
-        <v>14.08465314729752</v>
+        <v>13.26963201147512</v>
       </c>
       <c r="F10">
-        <v>24.64223461692846</v>
+        <v>21.02279473626684</v>
       </c>
       <c r="G10">
-        <v>29.52755797630016</v>
+        <v>27.55560486979678</v>
       </c>
       <c r="H10">
-        <v>14.19920618337973</v>
+        <v>8.808871671124425</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.85370176986224</v>
+        <v>24.30506304916184</v>
       </c>
       <c r="L10">
-        <v>9.214573435118984</v>
+        <v>6.576212006955387</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.75070022795672</v>
+        <v>12.16483452309076</v>
       </c>
       <c r="O10">
-        <v>21.77484007601483</v>
+        <v>15.58917939183774</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.96619915753759</v>
+        <v>14.89089052411775</v>
       </c>
       <c r="D11">
-        <v>5.058797674224362</v>
+        <v>4.841720182792984</v>
       </c>
       <c r="E11">
-        <v>14.15124471002431</v>
+        <v>13.65030281533056</v>
       </c>
       <c r="F11">
-        <v>24.68000607820283</v>
+        <v>21.54294439579733</v>
       </c>
       <c r="G11">
-        <v>29.59818131756521</v>
+        <v>28.33422896667731</v>
       </c>
       <c r="H11">
-        <v>14.17605228447748</v>
+        <v>8.864028087002747</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.20959567604502</v>
+        <v>25.1366240701657</v>
       </c>
       <c r="L11">
-        <v>9.22099116259975</v>
+        <v>6.692569242995586</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.74043007344876</v>
+        <v>12.16663032539619</v>
       </c>
       <c r="O11">
-        <v>21.75746795787752</v>
+        <v>15.84063273862804</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>14.00326950441202</v>
+        <v>15.05890279843351</v>
       </c>
       <c r="D12">
-        <v>5.070704270841561</v>
+        <v>4.876615440354933</v>
       </c>
       <c r="E12">
-        <v>14.17684525637572</v>
+        <v>13.79324210879446</v>
       </c>
       <c r="F12">
-        <v>24.69542454081416</v>
+        <v>21.74083968534505</v>
       </c>
       <c r="G12">
-        <v>29.62656596936758</v>
+        <v>28.63031725376317</v>
       </c>
       <c r="H12">
-        <v>14.16770306028536</v>
+        <v>8.886371225185915</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.34239666229758</v>
+        <v>25.4448789552847</v>
       </c>
       <c r="L12">
-        <v>9.223645001248306</v>
+        <v>6.736803321238506</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.73680155815892</v>
+        <v>12.16802347288975</v>
       </c>
       <c r="O12">
-        <v>21.75176246532657</v>
+        <v>15.9382178471636</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.99527265640647</v>
+        <v>15.02280389198802</v>
       </c>
       <c r="D13">
-        <v>5.068144606238775</v>
+        <v>4.869122749293353</v>
       </c>
       <c r="E13">
-        <v>14.17131493879211</v>
+        <v>13.76251240710505</v>
       </c>
       <c r="F13">
-        <v>24.69205441806035</v>
+        <v>21.69817983005079</v>
       </c>
       <c r="G13">
-        <v>29.62038007810107</v>
+        <v>28.5664964791711</v>
       </c>
       <c r="H13">
-        <v>14.16948257876049</v>
+        <v>8.881493455704909</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.31388463925278</v>
+        <v>25.37878506806463</v>
       </c>
       <c r="L13">
-        <v>9.223063528792869</v>
+        <v>6.727269381307178</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.73757144846557</v>
+        <v>12.16769123464248</v>
       </c>
       <c r="O13">
-        <v>21.75295237785264</v>
+        <v>15.91709572891777</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.96924301603512</v>
+        <v>14.9047514779313</v>
       </c>
       <c r="D14">
-        <v>5.059779318872916</v>
+        <v>4.844601210923257</v>
       </c>
       <c r="E14">
-        <v>14.15334329391872</v>
+        <v>13.66208714834676</v>
       </c>
       <c r="F14">
-        <v>24.68125225598735</v>
+        <v>21.55920739099898</v>
       </c>
       <c r="G14">
-        <v>29.60048373516768</v>
+        <v>28.35856430829372</v>
       </c>
       <c r="H14">
-        <v>14.17535699234423</v>
+        <v>8.865836720538203</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.22056128550085</v>
+        <v>25.16211710000691</v>
       </c>
       <c r="L14">
-        <v>9.221205022825787</v>
+        <v>6.696205072041933</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.74012633596937</v>
+        <v>12.1667304751989</v>
       </c>
       <c r="O14">
-        <v>21.75698105286293</v>
+        <v>15.84861364007346</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.95333794834517</v>
+        <v>14.83219124898723</v>
       </c>
       <c r="D15">
-        <v>5.054641844861809</v>
+        <v>4.829515063323942</v>
       </c>
       <c r="E15">
-        <v>14.14238458851022</v>
+        <v>13.60041413475966</v>
       </c>
       <c r="F15">
-        <v>24.67478063778865</v>
+        <v>21.47420026839181</v>
       </c>
       <c r="G15">
-        <v>29.58850993308851</v>
+        <v>28.23135698055615</v>
       </c>
       <c r="H15">
-        <v>14.17900979249226</v>
+        <v>8.856438065276214</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.16313886643621</v>
+        <v>25.02853887050136</v>
       </c>
       <c r="L15">
-        <v>9.220095708814128</v>
+        <v>6.67719910375358</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.74172518702457</v>
+        <v>12.16623574758258</v>
       </c>
       <c r="O15">
-        <v>21.7595624974332</v>
+        <v>15.80697483050461</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.86281064120784</v>
+        <v>14.41258802150027</v>
       </c>
       <c r="D16">
-        <v>5.024997555849699</v>
+        <v>4.742062663907688</v>
       </c>
       <c r="E16">
-        <v>14.08035590468997</v>
+        <v>13.2445879659174</v>
       </c>
       <c r="F16">
-        <v>24.6399226099384</v>
+        <v>20.9889371099432</v>
       </c>
       <c r="G16">
-        <v>29.52317300861554</v>
+        <v>27.50490187268432</v>
       </c>
       <c r="H16">
-        <v>14.20077787250577</v>
+        <v>8.80546748049432</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.83017314312406</v>
+        <v>24.24978629815758</v>
       </c>
       <c r="L16">
-        <v>9.214185386093863</v>
+        <v>6.568632995339589</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.75140791556827</v>
+        <v>12.16481532004845</v>
       </c>
       <c r="O16">
-        <v>21.77609738959851</v>
+        <v>15.57307647939557</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.80785150485068</v>
+        <v>14.15184015832323</v>
       </c>
       <c r="D17">
-        <v>5.006633799927702</v>
+        <v>4.687534792997548</v>
       </c>
       <c r="E17">
-        <v>14.0430058182466</v>
+        <v>13.02420895088628</v>
       </c>
       <c r="F17">
-        <v>24.6205320942804</v>
+        <v>20.69300982625629</v>
       </c>
       <c r="G17">
-        <v>29.4860289315516</v>
+        <v>27.06162338934267</v>
       </c>
       <c r="H17">
-        <v>14.21487643019959</v>
+        <v>8.776725647353885</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.6225097037802</v>
+        <v>23.76015902104678</v>
       </c>
       <c r="L17">
-        <v>9.210959322393933</v>
+        <v>6.502360211385555</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.75781296365631</v>
+        <v>12.16518217277839</v>
       </c>
       <c r="O17">
-        <v>21.78779279956597</v>
+        <v>15.433783534151</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.77646207509111</v>
+        <v>14.00066052925737</v>
       </c>
       <c r="D18">
-        <v>4.996007516336476</v>
+        <v>4.65585452741319</v>
       </c>
       <c r="E18">
-        <v>14.02178679543178</v>
+        <v>12.89670764195797</v>
       </c>
       <c r="F18">
-        <v>24.61011386783585</v>
+        <v>20.52348728414204</v>
       </c>
       <c r="G18">
-        <v>29.46574838058003</v>
+        <v>26.80759152958452</v>
       </c>
       <c r="H18">
-        <v>14.22325881839068</v>
+        <v>8.761102216183945</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.50185157697933</v>
+        <v>23.47415171242307</v>
       </c>
       <c r="L18">
-        <v>9.209251100958548</v>
+        <v>6.464369953224961</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.76166813463998</v>
+        <v>12.16583883501037</v>
       </c>
       <c r="O18">
-        <v>21.79508898298745</v>
+        <v>15.3552023580205</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.76587313647999</v>
+        <v>13.94926911691533</v>
       </c>
       <c r="D19">
-        <v>4.992398797433858</v>
+        <v>4.645074202325601</v>
       </c>
       <c r="E19">
-        <v>14.0146482216762</v>
+        <v>12.85341235119862</v>
       </c>
       <c r="F19">
-        <v>24.6067127888923</v>
+        <v>20.46621167676981</v>
       </c>
       <c r="G19">
-        <v>29.45906821455927</v>
+        <v>26.72174619842379</v>
       </c>
       <c r="H19">
-        <v>14.22614385203823</v>
+        <v>8.75596638908659</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.46079338387016</v>
+        <v>23.37655950768808</v>
       </c>
       <c r="L19">
-        <v>9.208698068453636</v>
+        <v>6.451529817920422</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.76300285085679</v>
+        <v>12.16613683563682</v>
       </c>
       <c r="O19">
-        <v>21.79765702343697</v>
+        <v>15.32885941409862</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.81367928209636</v>
+        <v>14.1797223810631</v>
       </c>
       <c r="D20">
-        <v>5.008595303372132</v>
+        <v>4.693372346462334</v>
       </c>
       <c r="E20">
-        <v>14.04695462527127</v>
+        <v>13.04774635666956</v>
       </c>
       <c r="F20">
-        <v>24.62252025226534</v>
+        <v>20.72444158336991</v>
       </c>
       <c r="G20">
-        <v>29.48987090361952</v>
+        <v>27.10871620604861</v>
       </c>
       <c r="H20">
-        <v>14.21334732423031</v>
+        <v>8.779690811452706</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.64474243060885</v>
+        <v>23.81273428939226</v>
       </c>
       <c r="L20">
-        <v>9.211287504100349</v>
+        <v>6.509401972704045</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.75711342727397</v>
+        <v>12.16509678756329</v>
       </c>
       <c r="O20">
-        <v>21.78648886040182</v>
+        <v>15.44845235329649</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.97688051343533</v>
+        <v>14.93947845645138</v>
       </c>
       <c r="D21">
-        <v>5.062239226590828</v>
+        <v>4.851817562243721</v>
       </c>
       <c r="E21">
-        <v>14.15861172937292</v>
+        <v>13.69161784842839</v>
       </c>
       <c r="F21">
-        <v>24.68439490490362</v>
+        <v>21.60000265299056</v>
       </c>
       <c r="G21">
-        <v>29.6062833531402</v>
+        <v>28.41960653063891</v>
       </c>
       <c r="H21">
-        <v>14.17362016420108</v>
+        <v>8.870395454159103</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.24802679351917</v>
+        <v>25.22593744079997</v>
       </c>
       <c r="L21">
-        <v>9.221744854595961</v>
+        <v>6.70532490045983</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.73936883855565</v>
+        <v>12.16699307853851</v>
       </c>
       <c r="O21">
-        <v>21.75577402019567</v>
+        <v>15.86866418466168</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.08530670237806</v>
+        <v>15.42489869155501</v>
       </c>
       <c r="D22">
-        <v>5.096698575482566</v>
+        <v>4.952431428599541</v>
       </c>
       <c r="E22">
-        <v>14.23381439174631</v>
+        <v>14.10533873905317</v>
       </c>
       <c r="F22">
-        <v>24.73132989336792</v>
+        <v>22.17759063068954</v>
       </c>
       <c r="G22">
-        <v>29.69192312242381</v>
+        <v>29.28352646474927</v>
       </c>
       <c r="H22">
-        <v>14.15009687132411</v>
+        <v>8.938194517811461</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.63079624934205</v>
+        <v>26.11087919668986</v>
       </c>
       <c r="L22">
-        <v>9.229881824245597</v>
+        <v>6.834367210955359</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.72929012095226</v>
+        <v>12.17240361227181</v>
       </c>
       <c r="O22">
-        <v>21.74078938142679</v>
+        <v>16.15708851028637</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.02728630654506</v>
+        <v>15.16685391263384</v>
       </c>
       <c r="D23">
-        <v>5.07836334280819</v>
+        <v>4.899005916950394</v>
       </c>
       <c r="E23">
-        <v>14.19347938861925</v>
+        <v>13.88519466084708</v>
       </c>
       <c r="F23">
-        <v>24.70568792363751</v>
+        <v>21.86886346190686</v>
       </c>
       <c r="G23">
-        <v>29.64534616461804</v>
+        <v>28.82182554675743</v>
       </c>
       <c r="H23">
-        <v>14.16242802952333</v>
+        <v>8.90120893559517</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.42758907743086</v>
+        <v>25.64208706942106</v>
       </c>
       <c r="L23">
-        <v>9.225420279079959</v>
+        <v>6.765410234943957</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.73453066977022</v>
+        <v>12.16912416937816</v>
       </c>
       <c r="O23">
-        <v>21.74832042904218</v>
+        <v>16.00188443346128</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.81104389595593</v>
+        <v>14.16712078582392</v>
       </c>
       <c r="D24">
-        <v>5.007708721348222</v>
+        <v>4.690734219658631</v>
       </c>
       <c r="E24">
-        <v>14.04516857700104</v>
+        <v>13.0371075895498</v>
       </c>
       <c r="F24">
-        <v>24.62161913277142</v>
+        <v>20.71022937700214</v>
       </c>
       <c r="G24">
-        <v>29.48813060139945</v>
+        <v>27.08742299228503</v>
       </c>
       <c r="H24">
-        <v>14.21403777044873</v>
+        <v>8.77834746033913</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.63469496150606</v>
+        <v>23.78897907510385</v>
       </c>
       <c r="L24">
-        <v>9.211138676764307</v>
+        <v>6.506218045448022</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.7574291492651</v>
+        <v>12.16513400400933</v>
       </c>
       <c r="O24">
-        <v>21.78707658870774</v>
+        <v>15.44181590870147</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.58638142065535</v>
+        <v>13.04315434651796</v>
       </c>
       <c r="D25">
-        <v>4.92907078888104</v>
+        <v>4.454040050895656</v>
       </c>
       <c r="E25">
-        <v>13.89533872135613</v>
+        <v>12.0942769126658</v>
       </c>
       <c r="F25">
-        <v>24.55903688779938</v>
+        <v>19.48734385394907</v>
       </c>
       <c r="G25">
-        <v>29.36000488081408</v>
+        <v>25.25313532711996</v>
       </c>
       <c r="H25">
-        <v>14.28015015434787</v>
+        <v>8.680263861005381</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.73349325137896</v>
+        <v>21.62221104434377</v>
       </c>
       <c r="L25">
-        <v>9.201370121354675</v>
+        <v>6.231646001636838</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.78867573990696</v>
+        <v>12.17776006733016</v>
       </c>
       <c r="O25">
-        <v>21.85063016943189</v>
+        <v>14.89630891690097</v>
       </c>
     </row>
   </sheetData>
